--- a/www/IndicatorsPerCountry/Honduras_GDPperCapita_TerritorialRef_1946_2012_CCode_340.xlsx
+++ b/www/IndicatorsPerCountry/Honduras_GDPperCapita_TerritorialRef_1946_2012_CCode_340.xlsx
@@ -312,13 +312,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Honduras_GDPperCapita_TerritorialRef_1946_2012_CCode_340.xlsx
+++ b/www/IndicatorsPerCountry/Honduras_GDPperCapita_TerritorialRef_1946_2012_CCode_340.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="114">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,253 +36,289 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1274</t>
-  </si>
-  <si>
-    <t>1253</t>
-  </si>
-  <si>
-    <t>1309</t>
-  </si>
-  <si>
-    <t>1141</t>
-  </si>
-  <si>
-    <t>1329</t>
-  </si>
-  <si>
-    <t>1295</t>
-  </si>
-  <si>
-    <t>1407</t>
-  </si>
-  <si>
-    <t>1547</t>
-  </si>
-  <si>
-    <t>1499</t>
-  </si>
-  <si>
-    <t>1563</t>
-  </si>
-  <si>
-    <t>1564</t>
-  </si>
-  <si>
-    <t>1373</t>
-  </si>
-  <si>
-    <t>1262</t>
-  </si>
-  <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>1135</t>
-  </si>
-  <si>
-    <t>1133</t>
-  </si>
-  <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>1138</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1219</t>
-  </si>
-  <si>
-    <t>1281</t>
-  </si>
-  <si>
-    <t>1333</t>
-  </si>
-  <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>1311</t>
-  </si>
-  <si>
-    <t>1313</t>
-  </si>
-  <si>
-    <t>1344</t>
-  </si>
-  <si>
-    <t>1356</t>
-  </si>
-  <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>1293</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>1372</t>
-  </si>
-  <si>
-    <t>1370</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>1398</t>
-  </si>
-  <si>
-    <t>1386</t>
-  </si>
-  <si>
-    <t>1416</t>
-  </si>
-  <si>
-    <t>1417</t>
-  </si>
-  <si>
-    <t>1438</t>
-  </si>
-  <si>
-    <t>1507</t>
-  </si>
-  <si>
-    <t>1538</t>
-  </si>
-  <si>
-    <t>1568</t>
-  </si>
-  <si>
-    <t>1603</t>
-  </si>
-  <si>
-    <t>1559</t>
-  </si>
-  <si>
-    <t>1556</t>
-  </si>
-  <si>
-    <t>1562</t>
-  </si>
-  <si>
-    <t>1581</t>
-  </si>
-  <si>
-    <t>1745</t>
-  </si>
-  <si>
-    <t>1732</t>
-  </si>
-  <si>
-    <t>1851</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2128</t>
-  </si>
-  <si>
-    <t>2062</t>
-  </si>
-  <si>
-    <t>2031</t>
-  </si>
-  <si>
-    <t>1929</t>
-  </si>
-  <si>
-    <t>1852</t>
-  </si>
-  <si>
-    <t>1859</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>1868</t>
-  </si>
-  <si>
-    <t>1899</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1857</t>
-  </si>
-  <si>
-    <t>1853</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1886</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1953</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>1871</t>
-  </si>
-  <si>
-    <t>1915</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2191</t>
-  </si>
-  <si>
-    <t>2280</t>
-  </si>
-  <si>
-    <t>2323</t>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>2161</t>
+  </si>
+  <si>
+    <t>2377</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1698</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>1747</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1873</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2066</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2090</t>
+  </si>
+  <si>
+    <t>2147</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2314</t>
+  </si>
+  <si>
+    <t>2364</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2463</t>
+  </si>
+  <si>
+    <t>2396</t>
+  </si>
+  <si>
+    <t>2391</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2448</t>
+  </si>
+  <si>
+    <t>2544</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>2764</t>
+  </si>
+  <si>
+    <t>2954</t>
+  </si>
+  <si>
+    <t>3153</t>
+  </si>
+  <si>
+    <t>3346</t>
+  </si>
+  <si>
+    <t>3382</t>
+  </si>
+  <si>
+    <t>3282</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>3076</t>
+  </si>
+  <si>
+    <t>2947</t>
+  </si>
+  <si>
+    <t>2968</t>
+  </si>
+  <si>
+    <t>2982</t>
+  </si>
+  <si>
+    <t>2898</t>
+  </si>
+  <si>
+    <t>2970</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>3045</t>
+  </si>
+  <si>
+    <t>2960</t>
+  </si>
+  <si>
+    <t>2993.12400946531</t>
+  </si>
+  <si>
+    <t>3094.54775018006</t>
+  </si>
+  <si>
+    <t>3216.88047456388</t>
+  </si>
+  <si>
+    <t>3105.97204385453</t>
+  </si>
+  <si>
+    <t>3163.82627983421</t>
+  </si>
+  <si>
+    <t>3210.27029165277</t>
+  </si>
+  <si>
+    <t>3303.26747345998</t>
+  </si>
+  <si>
+    <t>3332.90671629571</t>
+  </si>
+  <si>
+    <t>3215.18473276036</t>
+  </si>
+  <si>
+    <t>3335.71536975409</t>
+  </si>
+  <si>
+    <t>3365.2329927455</t>
+  </si>
+  <si>
+    <t>3431.2512263029</t>
+  </si>
+  <si>
+    <t>3527.12179068521</t>
+  </si>
+  <si>
+    <t>3686.66686118623</t>
+  </si>
+  <si>
+    <t>3851.05543126779</t>
+  </si>
+  <si>
+    <t>4045.29762505078</t>
+  </si>
+  <si>
+    <t>4237.30196547177</t>
+  </si>
+  <si>
+    <t>4358.76294231582</t>
+  </si>
+  <si>
+    <t>4200.16053781867</t>
+  </si>
+  <si>
+    <t>4305.89204178179</t>
+  </si>
+  <si>
+    <t>4421</t>
+  </si>
+  <si>
+    <t>4518</t>
+  </si>
+  <si>
+    <t>4561</t>
+  </si>
+  <si>
+    <t>4620</t>
+  </si>
+  <si>
+    <t>4706</t>
+  </si>
+  <si>
+    <t>4796</t>
   </si>
   <si>
     <t>Description</t>
@@ -587,7 +623,7 @@
         <v>1931.0</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -604,7 +640,7 @@
         <v>1932.0</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -621,7 +657,7 @@
         <v>1933.0</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +674,7 @@
         <v>1934.0</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +691,7 @@
         <v>1935.0</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -672,7 +708,7 @@
         <v>1936.0</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -689,7 +725,7 @@
         <v>1937.0</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -706,7 +742,7 @@
         <v>1938.0</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -723,7 +759,7 @@
         <v>1939.0</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -740,7 +776,7 @@
         <v>1940.0</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -757,7 +793,7 @@
         <v>1941.0</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +810,7 @@
         <v>1942.0</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -791,7 +827,7 @@
         <v>1943.0</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -808,7 +844,7 @@
         <v>1944.0</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -825,7 +861,7 @@
         <v>1945.0</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -842,7 +878,7 @@
         <v>1946.0</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -859,7 +895,7 @@
         <v>1947.0</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -876,7 +912,7 @@
         <v>1948.0</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -893,7 +929,7 @@
         <v>1949.0</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -910,7 +946,7 @@
         <v>1950.0</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +963,7 @@
         <v>1951.0</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -944,7 +980,7 @@
         <v>1952.0</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -961,7 +997,7 @@
         <v>1953.0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -978,7 +1014,7 @@
         <v>1954.0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -995,7 +1031,7 @@
         <v>1955.0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -1012,7 +1048,7 @@
         <v>1956.0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -1029,7 +1065,7 @@
         <v>1957.0</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -1046,7 +1082,7 @@
         <v>1958.0</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -1063,7 +1099,7 @@
         <v>1959.0</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1080,7 +1116,7 @@
         <v>1960.0</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -1097,7 +1133,7 @@
         <v>1961.0</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -1114,7 +1150,7 @@
         <v>1962.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
@@ -1131,7 +1167,7 @@
         <v>1963.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -1148,7 +1184,7 @@
         <v>1964.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
@@ -1165,7 +1201,7 @@
         <v>1965.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -1182,7 +1218,7 @@
         <v>1966.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -1199,7 +1235,7 @@
         <v>1967.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1216,7 +1252,7 @@
         <v>1968.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1233,7 +1269,7 @@
         <v>1969.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
@@ -1250,7 +1286,7 @@
         <v>1970.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1267,7 +1303,7 @@
         <v>1971.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -1284,7 +1320,7 @@
         <v>1972.0</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -1675,7 +1711,7 @@
         <v>1995.0</v>
       </c>
       <c r="E77" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
@@ -1692,7 +1728,7 @@
         <v>1996.0</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
@@ -1709,7 +1745,7 @@
         <v>1997.0</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
@@ -1726,7 +1762,7 @@
         <v>1998.0</v>
       </c>
       <c r="E80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81">
@@ -1743,7 +1779,7 @@
         <v>1999.0</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
@@ -1760,7 +1796,7 @@
         <v>2000.0</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83">
@@ -1777,7 +1813,7 @@
         <v>2001.0</v>
       </c>
       <c r="E83" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
@@ -1794,7 +1830,7 @@
         <v>2002.0</v>
       </c>
       <c r="E84" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85">
@@ -1811,7 +1847,7 @@
         <v>2003.0</v>
       </c>
       <c r="E85" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86">
@@ -1828,7 +1864,7 @@
         <v>2004.0</v>
       </c>
       <c r="E86" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87">
@@ -1845,7 +1881,7 @@
         <v>2005.0</v>
       </c>
       <c r="E87" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
@@ -1862,7 +1898,7 @@
         <v>2006.0</v>
       </c>
       <c r="E88" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89">
@@ -1879,7 +1915,7 @@
         <v>2007.0</v>
       </c>
       <c r="E89" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
@@ -1896,7 +1932,143 @@
         <v>2008.0</v>
       </c>
       <c r="E90" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1914,50 +2086,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
